--- a/Assets/Resources/CSV.data/ItemStat.xlsx
+++ b/Assets/Resources/CSV.data/ItemStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
   <si>
     <t>ItemCode</t>
   </si>
@@ -226,10 +226,79 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1195,7 +1264,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1256,7 +1325,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -1290,7 +1359,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1308,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -1334,7 +1403,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -1360,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1380,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1438,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1464,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1550,7 +1619,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -1568,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1614,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1640,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1680,7 +1749,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -1698,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1732,7 +1801,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -1750,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1776,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1802,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1810,7 +1879,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -1828,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1854,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1914,7 +1983,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -1932,7 +2001,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1992,7 +2061,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2010,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -2108,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2140,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -2166,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="H37" s="3">
         <v>5</v>
@@ -2200,7 +2269,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -2212,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -2304,7 +2373,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -2316,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2342,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2368,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2394,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2452,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>

--- a/Assets/Resources/CSV.data/ItemStat.xlsx
+++ b/Assets/Resources/CSV.data/ItemStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="72">
   <si>
     <t>ItemCode</t>
   </si>
@@ -226,87 +226,31 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RANGE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>LOOT_IN_METERIAL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE_SALE</t>
+  </si>
+  <si>
+    <t>METERIAL_HEAL</t>
+  </si>
+  <si>
+    <t>ENEMY_AMOUNT</t>
+  </si>
+  <si>
     <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,9 +436,26 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -924,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,7 +898,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1279,29 +1246,29 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1318,17 +1285,17 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1344,7 +1311,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3">
@@ -1359,28 +1326,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1396,43 +1363,43 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3">
         <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1443,16 +1410,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>68</v>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>11</v>
@@ -1474,7 +1441,7 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3">
@@ -1500,7 +1467,7 @@
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="3">
@@ -1509,8 +1476,8 @@
       <c r="G9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1526,17 +1493,17 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1552,7 +1519,7 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3">
@@ -1578,7 +1545,7 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="3">
@@ -1604,7 +1571,7 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="3">
@@ -1619,28 +1586,28 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1656,7 +1623,7 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="3">
@@ -1677,22 +1644,22 @@
         <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>69</v>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1703,16 +1670,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>27</v>
@@ -1734,7 +1701,7 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="3">
@@ -1749,28 +1716,28 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1786,7 +1753,7 @@
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="3">
@@ -1801,28 +1768,28 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1838,17 +1805,17 @@
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="3">
         <v>15</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1859,79 +1826,79 @@
         <v>10</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F25" s="3">
-        <v>20</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3">
         <v>-100</v>
@@ -1940,180 +1907,180 @@
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3">
         <v>-100</v>
       </c>
       <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="3">
         <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F28" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F29" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="3">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3">
         <v>-100</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>21</v>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F30" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="H31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>30</v>
+        <v>71</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3">
         <v>-100</v>
@@ -2124,14 +2091,14 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>19</v>
+      <c r="E33" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F33" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H33" s="3">
         <v>2</v>
@@ -2139,7 +2106,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3">
         <v>-100</v>
@@ -2150,74 +2117,74 @@
       <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>22</v>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F34" s="3">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3">
         <v>-100</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3">
         <v>-100</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
+      <c r="E36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3">
         <v>-100</v>
@@ -2226,24 +2193,24 @@
         <v>1</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="3">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3">
         <v>-100</v>
@@ -2252,42 +2219,42 @@
         <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="H38" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -2295,25 +2262,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -2321,7 +2288,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3">
         <v>-100</v>
@@ -2332,199 +2299,225 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>49</v>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F41" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="H41" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>2</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="H42" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H43" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3">
         <v>-100</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>76</v>
+      <c r="E45" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="3">
         <v>0</v>
       </c>
+      <c r="E46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="3">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2</v>
+      <c r="E47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B49" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>3</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/ItemStat.xlsx
+++ b/Assets/Resources/CSV.data/ItemStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="150">
   <si>
     <t>ItemCode</t>
   </si>
@@ -243,7 +243,307 @@
     <t>ENEMY_AMOUNT</t>
   </si>
   <si>
-    <t>.</t>
+    <t>아이템 이름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>외계인 혀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BABY_ELEPHANT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOOD_SUCKING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARVEST</t>
+  </si>
+  <si>
+    <t>BOILING_WATER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENTAL_DAMAGE</t>
+  </si>
+  <si>
+    <t>BUTTERFLY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FERTILIZER</t>
+  </si>
+  <si>
+    <t>LOST_DUCK</t>
+  </si>
+  <si>
+    <t>LUMBERJACK_SHIRT</t>
+  </si>
+  <si>
+    <t>MUSHROOM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUTATION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEACEFUL_BEE</t>
+  </si>
+  <si>
+    <t>LUCKY</t>
+  </si>
+  <si>
+    <t>PROPELLER_HAT</t>
+  </si>
+  <si>
+    <t>SCARED_SAUSAGE</t>
+  </si>
+  <si>
+    <t>SNAKE</t>
+  </si>
+  <si>
+    <t>TERRIFIED_ONION</t>
+  </si>
+  <si>
+    <t>TOXIC_SLUDGE</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUCKY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENTAL_DAMAGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVASION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 유령</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴상한 음식</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁먹은 소시지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁먹은 양파</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>독성 슬러지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉터</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로펠러 모자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>연필</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평화로운 벌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌연변이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>길잃은 오리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌즈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레모네이드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지뢰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬멧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고슴도치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리부상</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진득한 버서커</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>염소 두개골</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안경</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이너마이트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>점착 테이프</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 스테로이드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀여운 원숭이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>발톱 나무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이크</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARCOAL</t>
+  </si>
+  <si>
+    <t>숯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARVEST</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진 입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권투 글러브</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>끓는 물</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기 코끼리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>외계벌레</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기 도마뱀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉측한 이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뾰족탄환</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>점잖은 외계인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무꾼 셔츠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -641,7 +941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -756,6 +1056,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -885,26 +1315,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,1297 +1727,1711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
         <v>30</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="15">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G6" s="10">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G7" s="15">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G8" s="5">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I10" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G13" s="5">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G14" s="5">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G16" s="5">
         <v>3</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G20" s="15">
         <v>3</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="B21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G21" s="5">
         <v>10</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="I21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G22" s="5">
         <v>-5</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G23" s="5">
         <v>8</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="G24" s="10">
+        <v>2</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I24" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="2" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="G25" s="15">
+        <v>2</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="B26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="I26" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G28" s="5">
         <v>15</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="5">
+        <v>8</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="10">
         <v>10</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D30" s="10">
         <v>3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E30" s="10">
         <v>0</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G30" s="10">
         <v>5</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G31" s="22">
         <v>5</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="G32" s="15">
+        <v>2</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G33" s="5">
         <v>20</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="B34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G34" s="5">
         <v>3</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="I34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="B35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G35" s="10">
         <v>5</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G36" s="15">
         <v>15</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="B37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G37" s="5">
         <v>6</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I37" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="B38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="G38" s="10">
+        <v>2</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="B40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="I40" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="B41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G41" s="5">
         <v>7</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="I41" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G42" s="5">
         <v>6</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I42" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D43" s="5">
         <v>0</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E43" s="5">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="F43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
         <v>0</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F44" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="B45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I45" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="5">
+        <v>10</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1</v>
+      </c>
+      <c r="H50" s="26"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51" s="10">
+        <v>2</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="10">
+        <v>4</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="15">
+        <v>4</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="B53" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
+        <v>2</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="3">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="G53" s="10">
+        <v>2</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="I53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="I54" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="B55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G55" s="5">
         <v>3</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H55" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="I55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="5">
+        <v>10</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="B57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G57" s="5">
         <v>20</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H57" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I57" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="B59" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10">
+        <v>2</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I59" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44" s="4" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I60" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="5">
+        <v>4</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" s="5">
+        <v>2</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="B64" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
         <v>0</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B65" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D65" s="5">
         <v>0</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E65" s="5">
         <v>0</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="F65" s="6"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B66" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
         <v>0</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I66" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="B67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>2</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="G67" s="5">
+        <v>2</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="I67" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B68" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
         <v>0</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F68" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G68" s="5">
         <v>3</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Assets/Resources/CSV.data/ItemStat.xlsx
+++ b/Assets/Resources/CSV.data/ItemStat.xlsx
@@ -1729,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/CSV.data/ItemStat.xlsx
+++ b/Assets/Resources/CSV.data/ItemStat.xlsx
@@ -542,7 +542,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>나무꾼 셔츠</t>
+    <t>럼버 잭 셔츠</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1729,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
